--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3933" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3936" uniqueCount="341">
   <si>
     <t>Name</t>
   </si>
@@ -1473,7 +1473,7 @@
   <dimension ref="A1:AG237"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="H193" sqref="H193"/>
+      <selection activeCell="I193" sqref="I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -15677,7 +15677,9 @@
       <c r="H190" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I190" s="6"/>
+      <c r="I190" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="J190" s="6"/>
       <c r="K190" s="5" t="s">
         <v>3</v>
@@ -15735,7 +15737,9 @@
       <c r="H191" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I191" s="6"/>
+      <c r="I191" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="J191" s="6"/>
       <c r="K191" s="5" t="s">
         <v>3</v>
@@ -15793,7 +15797,9 @@
       <c r="H192" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I192" s="6"/>
+      <c r="I192" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="J192" s="6"/>
       <c r="K192" s="5" t="s">
         <v>3</v>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3936" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3942" uniqueCount="341">
   <si>
     <t>Name</t>
   </si>
@@ -1473,7 +1473,7 @@
   <dimension ref="A1:AG237"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="I193" sqref="I193"/>
+      <selection activeCell="L193" sqref="L193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -15680,11 +15680,15 @@
       <c r="I190" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J190" s="6"/>
+      <c r="J190" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="K190" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L190" s="6"/>
+      <c r="L190" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="M190" s="6"/>
       <c r="N190" s="6"/>
       <c r="O190" s="6"/>
@@ -15740,11 +15744,15 @@
       <c r="I191" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J191" s="6"/>
+      <c r="J191" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="K191" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L191" s="6"/>
+      <c r="L191" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="M191" s="6"/>
       <c r="N191" s="6"/>
       <c r="O191" s="6"/>
@@ -15800,11 +15808,15 @@
       <c r="I192" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J192" s="6"/>
+      <c r="J192" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="K192" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L192" s="6"/>
+      <c r="L192" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="M192" s="6"/>
       <c r="N192" s="6"/>
       <c r="O192" s="6"/>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3942" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3945" uniqueCount="341">
   <si>
     <t>Name</t>
   </si>
@@ -1472,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="L193" sqref="L193"/>
+    <sheetView tabSelected="1" topLeftCell="K176" workbookViewId="0">
+      <selection activeCell="M193" sqref="M193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -15689,7 +15689,9 @@
       <c r="L190" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M190" s="6"/>
+      <c r="M190" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="N190" s="6"/>
       <c r="O190" s="6"/>
       <c r="P190" s="6"/>
@@ -15753,7 +15755,9 @@
       <c r="L191" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M191" s="6"/>
+      <c r="M191" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="N191" s="6"/>
       <c r="O191" s="6"/>
       <c r="P191" s="6"/>
@@ -15817,7 +15821,9 @@
       <c r="L192" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M192" s="6"/>
+      <c r="M192" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="N192" s="6"/>
       <c r="O192" s="6"/>
       <c r="P192" s="6"/>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3945" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="341">
   <si>
     <t>Name</t>
   </si>
@@ -1473,7 +1473,7 @@
   <dimension ref="A1:AG237"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K176" workbookViewId="0">
-      <selection activeCell="M193" sqref="M193"/>
+      <selection activeCell="N193" sqref="N193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -15692,7 +15692,9 @@
       <c r="M190" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N190" s="6"/>
+      <c r="N190" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="O190" s="6"/>
       <c r="P190" s="6"/>
       <c r="Q190" s="6"/>
@@ -15758,7 +15760,9 @@
       <c r="M191" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N191" s="6"/>
+      <c r="N191" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="O191" s="6"/>
       <c r="P191" s="6"/>
       <c r="Q191" s="6"/>
@@ -15824,7 +15828,9 @@
       <c r="M192" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N192" s="6"/>
+      <c r="N192" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="O192" s="6"/>
       <c r="P192" s="6"/>
       <c r="Q192" s="6"/>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3951" uniqueCount="341">
   <si>
     <t>Name</t>
   </si>
@@ -1473,7 +1473,7 @@
   <dimension ref="A1:AG237"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K176" workbookViewId="0">
-      <selection activeCell="N193" sqref="N193"/>
+      <selection activeCell="O193" sqref="O193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -15695,7 +15695,9 @@
       <c r="N190" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O190" s="6"/>
+      <c r="O190" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="P190" s="6"/>
       <c r="Q190" s="6"/>
       <c r="R190" s="5" t="s">
@@ -15763,7 +15765,9 @@
       <c r="N191" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O191" s="6"/>
+      <c r="O191" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="P191" s="6"/>
       <c r="Q191" s="6"/>
       <c r="R191" s="5" t="s">
@@ -15831,7 +15835,9 @@
       <c r="N192" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O192" s="6"/>
+      <c r="O192" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="P192" s="6"/>
       <c r="Q192" s="6"/>
       <c r="R192" s="5" t="s">

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3951" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="341">
   <si>
     <t>Name</t>
   </si>
@@ -1473,7 +1473,7 @@
   <dimension ref="A1:AG237"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K176" workbookViewId="0">
-      <selection activeCell="O193" sqref="O193"/>
+      <selection activeCell="U193" sqref="U193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -15698,14 +15698,24 @@
       <c r="O190" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P190" s="6"/>
-      <c r="Q190" s="6"/>
+      <c r="P190" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q190" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="R190" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="S190" s="6"/>
-      <c r="T190" s="6"/>
-      <c r="U190" s="6"/>
+      <c r="S190" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T190" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U190" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V190" s="6"/>
       <c r="W190" s="6"/>
       <c r="X190" s="6"/>
@@ -15768,14 +15778,24 @@
       <c r="O191" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P191" s="6"/>
-      <c r="Q191" s="6"/>
+      <c r="P191" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q191" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="R191" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="S191" s="6"/>
-      <c r="T191" s="6"/>
-      <c r="U191" s="6"/>
+      <c r="S191" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T191" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U191" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V191" s="6"/>
       <c r="W191" s="6"/>
       <c r="X191" s="6"/>
@@ -15838,14 +15858,24 @@
       <c r="O192" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P192" s="6"/>
-      <c r="Q192" s="6"/>
+      <c r="P192" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q192" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="R192" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="S192" s="6"/>
-      <c r="T192" s="6"/>
-      <c r="U192" s="6"/>
+      <c r="S192" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T192" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U192" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V192" s="6"/>
       <c r="W192" s="6"/>
       <c r="X192" s="6"/>
